--- a/Ведомость-Диплом.xlsx
+++ b/Ведомость-Диплом.xlsx
@@ -481,9 +481,6 @@
     <t>6 м.п</t>
   </si>
   <si>
-    <t>8 м.п         17 маш.</t>
-  </si>
-  <si>
     <t>10 м.п</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>8 маш.</t>
+  </si>
+  <si>
+    <t>10 м.п         30 маш.</t>
   </si>
 </sst>
 </file>
@@ -702,29 +702,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,48 +715,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,25 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,6 +758,70 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,1486 +1137,1486 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="76.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="63.75">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="10">
         <v>6</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="10">
         <v>7</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>8</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="10">
         <v>9</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>10</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="10">
         <v>11</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="19.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>18.350000000000001</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>3.67</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <f>D6*E6</f>
         <v>55.050000000000004</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="11">
         <f>G6*1.17</f>
         <v>64.408500000000004</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <f>H6/I6</f>
         <v>12.8817</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <f>J6</f>
         <v>12.8817</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>4.5830000000000002</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>3.34</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>1.67</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G17" si="0">D7*E7</f>
         <v>15.307219999999999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H17" si="1">G7*1.17</f>
         <v>17.909447399999998</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="11">
         <f>H7/I7</f>
         <v>8.9547236999999988</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <v>0</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="17">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <f>D7/2</f>
         <v>2.2915000000000001</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>63.4</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>145.28110000000001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>169.97888700000001</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="46">
         <v>2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="46">
         <f>SUM(H10:H12)/I8</f>
         <v>153.18529199999998</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <v>3.9369999999999998</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>24.3</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>95.6691</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>111.932847</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="11">
         <v>2.504</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>64.3</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>161.00719999999998</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>188.37842399999997</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>18.3</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>5.1788999999999996</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>6.0593129999999995</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:12" ht="60">
-      <c r="A13" s="17">
+      <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>48.5</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>145.5</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="11">
         <f t="shared" si="1"/>
         <v>170.23499999999999</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <v>5</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <f>H13/I13</f>
         <v>34.046999999999997</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="11">
         <v>30</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>133</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>5.88</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>1.47</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>782.04</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="11">
         <f t="shared" si="1"/>
         <v>914.9867999999999</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <v>4</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="11">
         <f>H14/I14</f>
         <v>228.74669999999998</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="11">
         <v>8</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
-      <c r="A15" s="17">
+      <c r="A15" s="11">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <v>82</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>5.88</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>1.29</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>482.15999999999997</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="11">
         <f t="shared" si="1"/>
         <v>564.1271999999999</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="46">
         <v>6</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="46">
         <f>SUM(H16:H17)/I16</f>
         <v>227.84579999999997</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="46">
         <v>31</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <f>D14</f>
         <v>133</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>5.16</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>1.29</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>686.28</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
         <v>802.94759999999997</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" ht="30">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <f>SUM(G6:G17)</f>
         <v>2573.4735199999996</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="11">
         <f>SUM(H6:H17)</f>
         <v>3010.9640183999995</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <f>(13400/3720)*G18</f>
         <v>9270.0390236559124</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="11">
         <f>(13400/3720)*H18</f>
         <v>10845.945657677417</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="60">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12" ht="45">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="11">
         <v>3700</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <v>0.06</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <v>0.02</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <f>D21*E21</f>
         <v>222</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="11">
         <f>G21*1.17</f>
         <v>259.74</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="11">
         <v>3</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="11">
         <f>H21/I21</f>
         <v>86.58</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90">
-      <c r="A22" s="17">
+    <row r="22" spans="1:12" ht="75">
+      <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <v>11.628</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>13.37</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="11">
         <f t="shared" ref="G22:G24" si="2">D22*E22</f>
         <v>155.46635999999998</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="11">
         <f t="shared" ref="H22:H24" si="3">G22*1.17</f>
         <v>181.89564119999997</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <v>6</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="11">
         <f>H22/I22</f>
         <v>30.315940199999996</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="75">
-      <c r="A23" s="17">
+    <row r="23" spans="1:12" ht="60">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <v>6926</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <v>0.1293</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <f t="shared" si="2"/>
         <v>895.53179999999998</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="11">
         <f t="shared" si="3"/>
         <v>1047.7722059999999</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <v>3</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="11">
         <f>H23/I23</f>
         <v>349.25740199999996</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="60">
-      <c r="A24" s="17">
+    <row r="24" spans="1:12" ht="45">
+      <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="11">
         <v>6926</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="11">
         <f t="shared" si="2"/>
         <v>2091.652</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="11">
         <f t="shared" si="3"/>
         <v>2447.2328400000001</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <v>11</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="11">
         <f t="shared" ref="J24" si="4">H24/I24</f>
         <v>222.47571272727274</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="17">
+      <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11">
         <f>SUM(G21:G24)</f>
         <v>3364.6501600000001</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="11">
         <f>SUM(H21:H24)</f>
         <v>3936.6406871999998</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11">
         <f>(13400/3720)*G25</f>
         <v>12119.976382795699</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="11">
         <f>(13400/3720)*H25</f>
         <v>14180.372367870967</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" ht="45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <v>14</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>14</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="11">
         <f t="shared" ref="H28:H45" si="5">G28*1.17</f>
         <v>16.38</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
         <v>16</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" ht="75">
-      <c r="A29" s="17">
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="60">
+      <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="11">
         <v>25</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <v>5</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="11">
         <f t="shared" ref="G29:G45" si="6">D29*E29</f>
         <v>25</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="11">
         <f t="shared" si="5"/>
         <v>29.25</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="41">
         <v>15</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="41">
         <f>SUM(H29:H40)/I29</f>
         <v>127.912824</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="41">
         <f>J29</f>
         <v>127.912824</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="41" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="90">
-      <c r="A30" s="17">
+      <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="11">
         <v>82</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="11">
         <v>7.125</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <v>1.425</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="11">
         <f t="shared" si="6"/>
         <v>584.25</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="11">
         <f t="shared" si="5"/>
         <v>683.57249999999999</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="17">
+      <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="1:12" ht="90">
-      <c r="A32" s="17">
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="1:12" ht="75">
+      <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="11">
         <f t="shared" si="6"/>
         <v>180.4</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="11">
         <f t="shared" si="5"/>
         <v>211.06799999999998</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:13" ht="45">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="11">
         <v>1.07</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="11">
         <f t="shared" si="6"/>
         <v>87.740000000000009</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="11">
         <f t="shared" si="5"/>
         <v>102.6558</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" ht="45">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" spans="1:13" ht="30">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="11">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
         <v>0.67</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="11">
         <f t="shared" si="6"/>
         <v>219.76000000000002</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="11">
         <f t="shared" si="5"/>
         <v>257.11920000000003</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:13" ht="45">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="11">
         <v>0.88</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="11">
         <v>0.88</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="11">
         <f t="shared" si="6"/>
         <v>72.16</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="11">
         <f t="shared" si="5"/>
         <v>84.427199999999985</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:13" ht="30">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>0.75900000000000001</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="11">
         <f t="shared" si="6"/>
         <v>62.238</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="11">
         <f t="shared" si="5"/>
         <v>72.818460000000002</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:13" ht="30">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
         <v>1.08</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <v>1.08</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="11">
         <f t="shared" si="6"/>
         <v>88.56</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="11">
         <f t="shared" si="5"/>
         <v>103.6152</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:13" ht="45">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="11">
         <f>D30*2</f>
         <v>164</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="11">
         <f t="shared" si="6"/>
         <v>93.47999999999999</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="11">
         <f t="shared" si="5"/>
         <v>109.37159999999999</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:13" ht="60">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="11">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="11">
         <v>0.66</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="11">
         <f t="shared" si="6"/>
         <v>216.48000000000002</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="11">
         <f t="shared" si="5"/>
         <v>253.2816</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="11">
         <v>0.12</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>0.12</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="11">
         <f t="shared" si="6"/>
         <v>9.84</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="11">
         <f t="shared" si="5"/>
         <v>11.512799999999999</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-    </row>
-    <row r="41" spans="1:13" ht="60">
-      <c r="A41" s="17">
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:13" ht="45">
+      <c r="A41" s="11">
         <v>5</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="11">
         <v>1</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="11">
         <v>16.38</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <v>5.46</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="11">
         <f t="shared" si="6"/>
         <v>16.38</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="11">
         <f t="shared" si="5"/>
         <v>19.164599999999997</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="41">
         <v>3</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="41">
         <f>SUM(H41:H44)/I41</f>
         <v>39.131352</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="L41" s="41" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="90">
-      <c r="A42" s="17">
+      <c r="A42" s="11">
         <v>7</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <f>D40*4</f>
         <v>328</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <v>0.12809999999999999</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="11">
         <f t="shared" si="6"/>
         <v>42.016799999999996</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="11">
         <f t="shared" si="5"/>
         <v>49.159655999999991</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="30">
-      <c r="A43" s="17">
+      <c r="A43" s="11">
         <v>8</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="11">
         <v>0.36</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <v>0.12</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="11">
         <f t="shared" si="6"/>
         <v>29.52</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="11">
         <f t="shared" si="5"/>
         <v>34.538399999999996</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:13" ht="60">
-      <c r="A44" s="17">
+      <c r="A44" s="11">
         <v>9</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <v>1</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="11">
         <v>12.42</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="11">
         <f t="shared" si="6"/>
         <v>12.42</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="11">
         <f t="shared" si="5"/>
         <v>14.5314</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:13" ht="105">
-      <c r="A45" s="17">
+      <c r="A45" s="11">
         <v>10</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="11">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="11">
         <v>1.6080000000000001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="11">
         <f t="shared" si="6"/>
         <v>659.28</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="11">
         <f t="shared" si="5"/>
         <v>771.35759999999993</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="11">
         <v>5</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="11">
         <f t="shared" ref="J45" si="7">H45/I45</f>
         <v>154.27151999999998</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="11">
         <f>J45</f>
         <v>154.27151999999998</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30">
-      <c r="A46" s="17">
+      <c r="A46" s="11">
         <v>11</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
         <f>SUM(G28:G45)</f>
         <v>2413.5248000000001</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="11">
         <f>SUM(H28:H45)</f>
         <v>2823.824016</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:13" ht="30">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11">
         <f>(13400/3720)*G46</f>
         <v>8693.8796559139791</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="11">
         <f>(13400/3720)*H46</f>
         <v>10171.839197419355</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
     </row>
     <row r="49" spans="1:12" ht="75">
       <c r="B49" s="3" t="s">
@@ -2654,7 +2654,7 @@
         <f>J49</f>
         <v>107.83743094799999</v>
       </c>
-      <c r="L49" s="25" t="s">
+      <c r="L49" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="37">
         <v>35</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="37">
         <f>SUM(H51:H65)/I50</f>
         <v>567.73145854285701</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="37">
         <v>12</v>
       </c>
-      <c r="L50" s="26" t="s">
+      <c r="L50" s="37" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2718,10 +2718,10 @@
         <f t="shared" si="9"/>
         <v>319.36085999999995</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="8"/>
@@ -2748,10 +2748,10 @@
         <f t="shared" si="9"/>
         <v>342.86943600000001</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
     </row>
     <row r="53" spans="1:12" ht="75">
       <c r="A53" s="8"/>
@@ -2778,10 +2778,10 @@
         <f t="shared" si="9"/>
         <v>3068.9802</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
     </row>
     <row r="54" spans="1:12" ht="90">
       <c r="A54" s="8">
@@ -2810,12 +2810,12 @@
         <f t="shared" si="9"/>
         <v>7199.0918999999994</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-    </row>
-    <row r="55" spans="1:12" ht="60">
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+    </row>
+    <row r="55" spans="1:12" ht="45">
       <c r="A55" s="8">
         <v>4</v>
       </c>
@@ -2843,10 +2843,10 @@
         <f t="shared" si="9"/>
         <v>6850.3780800000004</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
     </row>
     <row r="56" spans="1:12" ht="45">
       <c r="A56" s="8">
@@ -2867,10 +2867,10 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="8">
@@ -2899,12 +2899,12 @@
         <f t="shared" si="9"/>
         <v>352.53035999999997</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-    </row>
-    <row r="58" spans="1:12" ht="30">
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="8"/>
       <c r="B58" s="3" t="s">
         <v>68</v>
@@ -2929,10 +2929,10 @@
         <f t="shared" si="9"/>
         <v>69.254639999999981</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="8"/>
@@ -2959,12 +2959,12 @@
         <f t="shared" si="9"/>
         <v>120.88439999999999</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-    </row>
-    <row r="60" spans="1:12" ht="60">
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+    </row>
+    <row r="60" spans="1:12" ht="45">
       <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
         <v>71</v>
@@ -2981,10 +2981,10 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="8">
@@ -3013,10 +3013,10 @@
         <f t="shared" si="9"/>
         <v>4.7746530000000007</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
     </row>
     <row r="62" spans="1:12" ht="30">
       <c r="A62" s="8"/>
@@ -3043,10 +3043,10 @@
         <f t="shared" si="9"/>
         <v>122.82192000000001</v>
       </c>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="8"/>
@@ -3073,12 +3073,12 @@
         <f t="shared" si="9"/>
         <v>189.58212</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-    </row>
-    <row r="64" spans="1:12" ht="75">
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+    </row>
+    <row r="64" spans="1:12" ht="60">
       <c r="A64" s="8"/>
       <c r="B64" s="3" t="s">
         <v>75</v>
@@ -3103,12 +3103,12 @@
         <f t="shared" si="9"/>
         <v>1210.9078799999997</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-    </row>
-    <row r="65" spans="1:12" ht="60">
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+    </row>
+    <row r="65" spans="1:12" ht="45">
       <c r="A65" s="8">
         <v>8</v>
       </c>
@@ -3135,15 +3135,15 @@
         <f t="shared" si="9"/>
         <v>19.164599999999997</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="38">
         <v>3</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="27">
+      <c r="J65" s="28"/>
+      <c r="K65" s="38">
         <f>SUM(H65:H67)/I65</f>
         <v>365.990859</v>
       </c>
-      <c r="L65" s="27" t="s">
+      <c r="L65" s="38" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3174,10 +3174,10 @@
         <f t="shared" si="9"/>
         <v>1064.2765769999999</v>
       </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
     </row>
     <row r="67" spans="1:12" ht="60">
       <c r="A67" s="8">
@@ -3206,10 +3206,10 @@
         <f t="shared" si="9"/>
         <v>14.5314</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
     </row>
     <row r="68" spans="1:12" ht="30">
       <c r="A68" s="8">
@@ -3276,20 +3276,20 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="45"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
     </row>
     <row r="72" spans="1:12" ht="60">
       <c r="A72" s="4"/>
@@ -3324,7 +3324,7 @@
         <v>16.574999999999999</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="40" t="s">
+      <c r="L72" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3358,11 +3358,11 @@
         <v>1</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" ref="J73:J84" si="10">H73/I73</f>
+        <f t="shared" ref="J73:J78" si="10">H73/I73</f>
         <v>16.38</v>
       </c>
       <c r="K73" s="8"/>
-      <c r="L73" s="40"/>
+      <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12" ht="45">
       <c r="A74" s="8">
@@ -3391,19 +3391,19 @@
         <f t="shared" ref="H74:H76" si="12">G74*1.17</f>
         <v>351</v>
       </c>
-      <c r="I74" s="34">
-        <v>25</v>
-      </c>
-      <c r="J74" s="34">
+      <c r="I74" s="19">
+        <v>40</v>
+      </c>
+      <c r="J74" s="19">
         <f>SUM(H74:H77)/I74</f>
-        <v>1373.6012939999998</v>
-      </c>
-      <c r="K74" s="34">
+        <v>858.50080874999981</v>
+      </c>
+      <c r="K74" s="19">
         <f>J74</f>
-        <v>1373.6012939999998</v>
-      </c>
-      <c r="L74" s="37" t="s">
-        <v>150</v>
+        <v>858.50080874999981</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45">
@@ -3433,10 +3433,10 @@
         <f t="shared" si="12"/>
         <v>25011.856349999998</v>
       </c>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
     </row>
     <row r="76" spans="1:12" ht="60">
       <c r="A76" s="8">
@@ -3465,10 +3465,10 @@
         <f t="shared" si="12"/>
         <v>8626.1759999999995</v>
       </c>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
     </row>
     <row r="77" spans="1:12" ht="45">
       <c r="A77" s="8">
@@ -3497,10 +3497,10 @@
         <f>G77*1.17</f>
         <v>351</v>
       </c>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="A78" s="8">
@@ -3537,8 +3537,8 @@
         <v>385.88940000000002</v>
       </c>
       <c r="K78" s="7"/>
-      <c r="L78" s="40" t="s">
-        <v>151</v>
+      <c r="L78" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="60">
@@ -3576,8 +3576,8 @@
         <f>H79/I79</f>
         <v>245.70000000000002</v>
       </c>
-      <c r="L79" s="40" t="s">
-        <v>152</v>
+      <c r="L79" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45">
@@ -3607,15 +3607,15 @@
         <f t="shared" si="13"/>
         <v>145.19100959999997</v>
       </c>
-      <c r="I80" s="46">
+      <c r="I80" s="16">
         <v>3</v>
       </c>
-      <c r="J80" s="30"/>
-      <c r="K80" s="34">
+      <c r="J80" s="28"/>
+      <c r="K80" s="19">
         <f>SUM(H80:H82)/I80</f>
         <v>433.85741099999996</v>
       </c>
-      <c r="L80" s="37" t="s">
+      <c r="L80" s="22" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3646,10 +3646,10 @@
         <f t="shared" si="13"/>
         <v>1046.2913369999999</v>
       </c>
-      <c r="I81" s="47"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="38"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="23"/>
     </row>
     <row r="82" spans="1:12" ht="60">
       <c r="A82" s="7">
@@ -3678,10 +3678,10 @@
         <f t="shared" si="13"/>
         <v>110.08988639999998</v>
       </c>
-      <c r="I82" s="48"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="39"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" spans="1:12" ht="60">
       <c r="A83" s="7">
@@ -3718,7 +3718,7 @@
         <f>H83/I83</f>
         <v>149.25065999999998</v>
       </c>
-      <c r="L83" s="40" t="s">
+      <c r="L83" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
         <f>H84/I84</f>
         <v>373.82670000000002</v>
       </c>
-      <c r="L84" s="40" t="s">
+      <c r="L84" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="40"/>
+      <c r="L85" s="14"/>
     </row>
     <row r="86" spans="1:12" ht="30">
       <c r="A86" s="7"/>
@@ -3809,26 +3809,26 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="40"/>
+      <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="45"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="33"/>
     </row>
     <row r="88" spans="1:12" ht="75">
-      <c r="A88" s="41"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="7" t="s">
         <v>99</v>
       </c>
@@ -3855,13 +3855,13 @@
       <c r="I88" s="7">
         <v>2</v>
       </c>
-      <c r="J88" s="40"/>
+      <c r="J88" s="14"/>
       <c r="K88" s="8">
         <f>H88/I88</f>
         <v>58.04135999999999</v>
       </c>
-      <c r="L88" s="40" t="s">
-        <v>153</v>
+      <c r="L88" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="60">
@@ -3894,12 +3894,12 @@
       <c r="I89" s="7">
         <v>3</v>
       </c>
-      <c r="J89" s="40"/>
+      <c r="J89" s="14"/>
       <c r="K89" s="8">
         <f>H89/I89</f>
         <v>349.25740199999996</v>
       </c>
-      <c r="L89" s="40" t="s">
+      <c r="L89" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       <c r="I90" s="7">
         <v>4</v>
       </c>
-      <c r="J90" s="40"/>
+      <c r="J90" s="14"/>
       <c r="K90" s="8">
         <f>H90/I90</f>
         <v>127.96055999999983</v>
       </c>
-      <c r="L90" s="17" t="s">
+      <c r="L90" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3969,15 +3969,15 @@
         <f t="shared" si="15"/>
         <v>38.329199999999993</v>
       </c>
-      <c r="I91" s="46">
+      <c r="I91" s="16">
         <v>3</v>
       </c>
-      <c r="J91" s="30"/>
-      <c r="K91" s="49">
+      <c r="J91" s="28"/>
+      <c r="K91" s="25">
         <f>SUM(H91:H93)/I91</f>
         <v>196.44122159999998</v>
       </c>
-      <c r="L91" s="37" t="s">
+      <c r="L91" s="22" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4008,10 +4008,10 @@
         <f t="shared" si="15"/>
         <v>521.93166479999991</v>
       </c>
-      <c r="I92" s="47"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="38"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="23"/>
     </row>
     <row r="93" spans="1:12" ht="60">
       <c r="A93" s="7">
@@ -4040,10 +4040,10 @@
         <f t="shared" si="15"/>
         <v>29.062799999999999</v>
       </c>
-      <c r="I93" s="48"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="39"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="24"/>
     </row>
     <row r="94" spans="1:12" ht="60">
       <c r="A94" s="7">
@@ -4075,13 +4075,13 @@
       <c r="I94" s="7">
         <v>2</v>
       </c>
-      <c r="J94" s="40"/>
+      <c r="J94" s="14"/>
       <c r="K94" s="8">
         <f>H94/I94</f>
         <v>169.69680000000002</v>
       </c>
-      <c r="L94" s="40" t="s">
-        <v>153</v>
+      <c r="L94" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30">
@@ -4114,12 +4114,12 @@
       <c r="I95" s="7">
         <v>4</v>
       </c>
-      <c r="J95" s="40"/>
+      <c r="J95" s="14"/>
       <c r="K95" s="8">
         <f>H95/I95</f>
         <v>76.068719999999999</v>
       </c>
-      <c r="L95" s="17" t="s">
+      <c r="L95" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4150,16 +4150,16 @@
         <f t="shared" si="15"/>
         <v>35.942399999999999</v>
       </c>
-      <c r="I96" s="46">
+      <c r="I96" s="16">
         <v>4</v>
       </c>
-      <c r="J96" s="46"/>
-      <c r="K96" s="49">
+      <c r="J96" s="16"/>
+      <c r="K96" s="25">
         <f>SUM(H96:H98)/I96</f>
         <v>129.24381599999998</v>
       </c>
-      <c r="L96" s="46" t="s">
-        <v>154</v>
+      <c r="L96" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="45">
@@ -4189,10 +4189,10 @@
         <f t="shared" si="15"/>
         <v>440.03606399999995</v>
       </c>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="47"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="17"/>
     </row>
     <row r="98" spans="1:12" ht="60">
       <c r="A98" s="7">
@@ -4221,10 +4221,10 @@
         <f t="shared" si="15"/>
         <v>40.996799999999993</v>
       </c>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="48"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="18"/>
     </row>
     <row r="99" spans="1:12" ht="60">
       <c r="A99" s="7">
@@ -4256,13 +4256,13 @@
       <c r="I99" s="7">
         <v>2</v>
       </c>
-      <c r="J99" s="40"/>
+      <c r="J99" s="14"/>
       <c r="K99" s="8">
         <f>H99/I99</f>
         <v>169.69680000000002</v>
       </c>
-      <c r="L99" s="40" t="s">
-        <v>153</v>
+      <c r="L99" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="60">
@@ -4295,12 +4295,12 @@
       <c r="I100" s="7">
         <v>3</v>
       </c>
-      <c r="J100" s="40"/>
+      <c r="J100" s="14"/>
       <c r="K100" s="8">
         <f>H100/I100</f>
         <v>75.757499999999993</v>
       </c>
-      <c r="L100" s="40" t="s">
+      <c r="L100" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4331,18 +4331,18 @@
         <f t="shared" si="15"/>
         <v>16.800263999999999</v>
       </c>
-      <c r="I101" s="46">
+      <c r="I101" s="16">
         <v>19</v>
       </c>
-      <c r="J101" s="34">
+      <c r="J101" s="19">
         <f>SUM(H101:H105)/I101</f>
         <v>59.587496526315796</v>
       </c>
-      <c r="K101" s="34" t="s">
+      <c r="K101" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="34" t="s">
-        <v>155</v>
+      <c r="L101" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="30">
@@ -4364,10 +4364,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I102" s="47"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7">
@@ -4396,10 +4396,10 @@
         <f t="shared" si="15"/>
         <v>64.199069999999992</v>
       </c>
-      <c r="I103" s="47"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7"/>
@@ -4426,10 +4426,10 @@
         <f t="shared" si="15"/>
         <v>498.2679</v>
       </c>
-      <c r="I104" s="47"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
     </row>
     <row r="105" spans="1:12" ht="75">
       <c r="A105" s="7"/>
@@ -4456,10 +4456,10 @@
         <f t="shared" si="15"/>
         <v>552.89520000000005</v>
       </c>
-      <c r="I105" s="48"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" spans="1:12" ht="45">
       <c r="A106" s="7">
@@ -4491,13 +4491,13 @@
       <c r="I106" s="7">
         <v>8</v>
       </c>
-      <c r="J106" s="41"/>
+      <c r="J106" s="15"/>
       <c r="K106" s="8">
         <f>H106/I106</f>
         <v>92.137499999999989</v>
       </c>
-      <c r="L106" s="40" t="s">
-        <v>156</v>
+      <c r="L106" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="30">
@@ -4524,7 +4524,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="40"/>
+      <c r="L107" s="14"/>
     </row>
     <row r="108" spans="1:12" ht="30">
       <c r="A108" s="7"/>
@@ -4548,51 +4548,15 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="40"/>
+      <c r="L108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="K96:K98"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="I50:I64"/>
-    <mergeCell ref="J50:J64"/>
-    <mergeCell ref="K50:K64"/>
-    <mergeCell ref="L50:L64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="I29:I40"/>
+    <mergeCell ref="J29:J40"/>
+    <mergeCell ref="K29:K40"/>
+    <mergeCell ref="L29:L40"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A4:K4"/>
@@ -4605,11 +4569,47 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="I29:I40"/>
-    <mergeCell ref="J29:J40"/>
-    <mergeCell ref="K29:K40"/>
-    <mergeCell ref="L29:L40"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="I50:I64"/>
+    <mergeCell ref="J50:J64"/>
+    <mergeCell ref="K50:K64"/>
+    <mergeCell ref="L50:L64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="K96:K98"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="J91:J93"/>
     <mergeCell ref="I91:I93"/>
     <mergeCell ref="K91:K93"/>
   </mergeCells>

--- a/Ведомость-Диплом.xlsx
+++ b/Ведомость-Диплом.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="159">
   <si>
     <t>№ п/п</t>
   </si>
@@ -409,9 +409,6 @@
     <t xml:space="preserve">Смена подрельсовых прокладок с одновременной сменой на новые клеммы </t>
   </si>
   <si>
-    <t>6.1 Подготовительные работы(Фронт работ 3720 м)</t>
-  </si>
-  <si>
     <t>Выгрузка железобетонных шпал</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>6.1.2 Работы на перегоне</t>
   </si>
   <si>
-    <t>6.1.1 Работы на базе(Ронт работ 3700м)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 м.п,       1 маш. </t>
   </si>
   <si>
@@ -499,7 +493,19 @@
     <t>8 маш.</t>
   </si>
   <si>
-    <t>10 м.п         30 маш.</t>
+    <t>6.1.1 Работы на базе (Фронт работ 3720м)</t>
+  </si>
+  <si>
+    <t>6.1 Подготовительные работы</t>
+  </si>
+  <si>
+    <t>6.4. Основные рабты по очистке щебеночного балласта.</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>8 м.п         11 маш.</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,15 +526,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -560,6 +557,29 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -680,74 +700,168 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -759,69 +873,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,6 +884,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1119,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,1493 +1195,1501 @@
     <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="35" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="63.75">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="15">
         <v>6</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="15">
         <v>7</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="15">
         <v>8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="15">
         <v>9</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="15">
         <v>11</v>
       </c>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="19.5">
-      <c r="A4" s="49" t="s">
+      <c r="L3" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="A4" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="45">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>18.350000000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>3.67</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>D6*E6</f>
         <v>55.050000000000004</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>G6*1.17</f>
         <v>64.408500000000004</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f>H6/I6</f>
         <v>12.8817</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>J6</f>
         <v>12.8817</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>139</v>
+      <c r="L6" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60">
-      <c r="A7" s="11">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>4.5830000000000002</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>3.34</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1.67</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f t="shared" ref="G7:G17" si="0">D7*E7</f>
         <v>15.307219999999999</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f t="shared" ref="H7:H17" si="1">G7*1.17</f>
         <v>17.909447399999998</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>H7/I7</f>
         <v>8.9547236999999988</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>139</v>
+      <c r="L7" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="11">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>D7/2</f>
         <v>2.2915000000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>63.4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>145.28110000000001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>169.97888700000001</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="37">
         <v>2</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="37">
         <f>SUM(H10:H12)/I8</f>
         <v>153.18529199999998</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>140</v>
+      <c r="L8" s="37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60">
-      <c r="A9" s="11">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="B9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>3.9369999999999998</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>24.3</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>95.6691</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>111.932847</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>2.504</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>64.3</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>161.00719999999998</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>188.37842399999997</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>18.3</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>5.1788999999999996</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>6.0593129999999995</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12" ht="60">
-      <c r="A13" s="11">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="10">
         <v>3</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>48.5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>145.5</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>170.23499999999999</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>5</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <f>H13/I13</f>
         <v>34.046999999999997</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>30</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>139</v>
+      <c r="L13" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75">
-      <c r="A14" s="11">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="10">
         <v>133</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11">
-        <v>133</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>5.88</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>1.47</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>782.04</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>914.9867999999999</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>4</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <f>H14/I14</f>
         <v>228.74669999999998</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>8</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>141</v>
+      <c r="L14" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45">
-      <c r="A15" s="11">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="B15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>82</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>5.88</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1.29</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>482.15999999999997</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>564.1271999999999</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="37">
         <v>6</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="37">
         <f>SUM(H16:H17)/I16</f>
         <v>227.84579999999997</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="37">
         <v>31</v>
       </c>
-      <c r="L16" s="46" t="s">
-        <v>141</v>
+      <c r="L16" s="37" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f>D14</f>
         <v>133</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>5.16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>1.29</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>686.28</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>802.94759999999997</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="30">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <f>SUM(G6:G17)</f>
         <v>2573.4735199999996</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <f>SUM(H6:H17)</f>
         <v>3010.9640183999995</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <f>(13400/3720)*G18</f>
         <v>9270.0390236559124</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>(13400/3720)*H18</f>
         <v>10845.945657677417</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="A20" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" ht="45">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>3700</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0.06</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>0.02</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>D21*E21</f>
         <v>222</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <f>G21*1.17</f>
         <v>259.74</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>3</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <f>H21/I21</f>
         <v>86.58</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>142</v>
+      <c r="L21" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="75">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="17">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>11.628</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>13.37</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f t="shared" ref="G22:G24" si="2">D22*E22</f>
         <v>155.46635999999998</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <f t="shared" ref="H22:H24" si="3">G22*1.17</f>
         <v>181.89564119999997</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>6</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>H22/I22</f>
         <v>30.315940199999996</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>143</v>
+      <c r="L22" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>6926</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0.1293</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f t="shared" si="2"/>
         <v>895.53179999999998</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <f t="shared" si="3"/>
         <v>1047.7722059999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>3</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>H23/I23</f>
         <v>349.25740199999996</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>142</v>
+      <c r="L23" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45">
-      <c r="A24" s="11">
-        <v>3</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="17">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>6926</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f t="shared" si="2"/>
         <v>2091.652</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <f t="shared" si="3"/>
         <v>2447.2328400000001</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>11</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <f t="shared" ref="J24" si="4">H24/I24</f>
         <v>222.47571272727274</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>144</v>
+      <c r="L24" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="11">
-        <v>4</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
         <f>SUM(G21:G24)</f>
         <v>3364.6501600000001</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <f>SUM(H21:H24)</f>
         <v>3936.6406871999998</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <f>(13400/3720)*G25</f>
         <v>12119.976382795699</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <f>(13400/3720)*H25</f>
         <v>14180.372367870967</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="12"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>14</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>14</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <f t="shared" ref="H28:H45" si="5">G28*1.17</f>
         <v>16.38</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
         <v>16</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="60">
-      <c r="A29" s="11">
+      <c r="A29" s="17">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>25</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>5</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f t="shared" ref="G29:G45" si="6">D29*E29</f>
         <v>25</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <f t="shared" si="5"/>
         <v>29.25</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="28">
         <v>15</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="28">
         <f>SUM(H29:H40)/I29</f>
         <v>127.912824</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="28">
         <f>J29</f>
         <v>127.912824</v>
       </c>
-      <c r="L29" s="41" t="s">
-        <v>145</v>
+      <c r="L29" s="28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="90">
-      <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="17">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>82</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>7.125</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>1.425</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="6"/>
         <v>584.25</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <f t="shared" si="5"/>
         <v>683.57249999999999</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="11">
-        <v>3</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="17">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="75">
-      <c r="A32" s="11">
-        <v>4</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f t="shared" si="6"/>
         <v>180.4</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <f t="shared" si="5"/>
         <v>211.06799999999998</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:13" ht="45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>1.07</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f t="shared" si="6"/>
         <v>87.740000000000009</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <f t="shared" si="5"/>
         <v>102.6558</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:13" ht="30">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>0.67</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f t="shared" si="6"/>
         <v>219.76000000000002</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <f t="shared" si="5"/>
         <v>257.11920000000003</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:13" ht="45">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0.88</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>0.88</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f t="shared" si="6"/>
         <v>72.16</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <f t="shared" si="5"/>
         <v>84.427199999999985</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:13" ht="30">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>0.75900000000000001</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f t="shared" si="6"/>
         <v>62.238</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <f t="shared" si="5"/>
         <v>72.818460000000002</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="30">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>1.08</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>1.08</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f t="shared" si="6"/>
         <v>88.56</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f t="shared" si="5"/>
         <v>103.6152</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:13" ht="45">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <f>D30*2</f>
         <v>164</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f t="shared" si="6"/>
         <v>93.47999999999999</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <f t="shared" si="5"/>
         <v>109.37159999999999</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="1:13" ht="60">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <f>D30*4</f>
         <v>328</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>0.66</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f t="shared" si="6"/>
         <v>216.48000000000002</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <f t="shared" si="5"/>
         <v>253.2816</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="45">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="17">
+        <v>5</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>0.12</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>0.12</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f t="shared" si="6"/>
         <v>9.84</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <f t="shared" si="5"/>
         <v>11.512799999999999</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:13" ht="45">
-      <c r="A41" s="11">
-        <v>5</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="17">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>16.38</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>5.46</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f t="shared" si="6"/>
         <v>16.38</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <f t="shared" si="5"/>
         <v>19.164599999999997</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="28">
         <v>3</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="J41" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="28">
         <f>SUM(H41:H44)/I41</f>
         <v>39.131352</v>
       </c>
-      <c r="L41" s="41" t="s">
-        <v>142</v>
+      <c r="L41" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="90">
-      <c r="A42" s="11">
+      <c r="A42" s="17">
         <v>7</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <f>D40*4</f>
         <v>328</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>0.12809999999999999</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f t="shared" si="6"/>
         <v>42.016799999999996</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <f t="shared" si="5"/>
         <v>49.159655999999991</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="30">
-      <c r="A43" s="11">
+      <c r="A43" s="17">
         <v>8</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>0.36</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>0.12</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f t="shared" si="6"/>
         <v>29.52</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f t="shared" si="5"/>
         <v>34.538399999999996</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="60">
-      <c r="A44" s="11">
+      <c r="A44" s="17">
         <v>9</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>1</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>12.42</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f t="shared" si="6"/>
         <v>12.42</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <f t="shared" si="5"/>
         <v>14.5314</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="105">
-      <c r="A45" s="11">
+      <c r="A45" s="17">
         <v>10</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <f>D30</f>
         <v>82</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>1.6080000000000001</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <f t="shared" si="6"/>
         <v>659.28</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <f t="shared" si="5"/>
         <v>771.35759999999993</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <v>5</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <f t="shared" ref="J45" si="7">H45/I45</f>
         <v>154.27151999999998</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <f>J45</f>
         <v>154.27151999999998</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>146</v>
+      <c r="L45" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30">
-      <c r="A46" s="11">
-        <v>11</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10">
         <f>SUM(G28:G45)</f>
         <v>2413.5248000000001</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <f>SUM(H28:H45)</f>
         <v>2823.824016</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="12"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="30">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
         <f>(13400/3720)*G46</f>
         <v>8693.8796559139791</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <f>(13400/3720)*H46</f>
         <v>10171.839197419355</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="12"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="45"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="40"/>
     </row>
     <row r="49" spans="1:12" ht="75">
+      <c r="A49" s="23">
+        <v>1</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
@@ -2654,13 +2725,13 @@
         <f>J49</f>
         <v>107.83743094799999</v>
       </c>
-      <c r="L49" s="13" t="s">
-        <v>147</v>
+      <c r="L49" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="60">
       <c r="A50" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>59</v>
@@ -2677,24 +2748,22 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="41">
         <v>35</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="41">
         <f>SUM(H51:H65)/I50</f>
         <v>567.73145854285701</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="41">
         <v>12</v>
       </c>
-      <c r="L50" s="37" t="s">
-        <v>148</v>
+      <c r="L50" s="41" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="45">
-      <c r="A51" s="8">
-        <v>2</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
@@ -2718,10 +2787,10 @@
         <f t="shared" si="9"/>
         <v>319.36085999999995</v>
       </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="8"/>
@@ -2748,13 +2817,15 @@
         <f t="shared" si="9"/>
         <v>342.86943600000001</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" ht="75">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8">
+        <v>3</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>124</v>
       </c>
@@ -2778,14 +2849,14 @@
         <f t="shared" si="9"/>
         <v>3068.9802</v>
       </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" ht="90">
       <c r="A54" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>125</v>
@@ -2810,14 +2881,14 @@
         <f t="shared" si="9"/>
         <v>7199.0918999999994</v>
       </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
     </row>
     <row r="55" spans="1:12" ht="45">
       <c r="A55" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>63</v>
@@ -2843,14 +2914,14 @@
         <f t="shared" si="9"/>
         <v>6850.3780800000004</v>
       </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" ht="45">
       <c r="A56" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>65</v>
@@ -2867,15 +2938,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="8">
-        <v>6</v>
-      </c>
+      <c r="A57" s="8"/>
       <c r="B57" s="3" t="s">
         <v>66</v>
       </c>
@@ -2899,10 +2968,10 @@
         <f t="shared" si="9"/>
         <v>352.53035999999997</v>
       </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="8"/>
@@ -2929,10 +2998,10 @@
         <f t="shared" si="9"/>
         <v>69.254639999999981</v>
       </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="8"/>
@@ -2959,13 +3028,15 @@
         <f t="shared" si="9"/>
         <v>120.88439999999999</v>
       </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" ht="45">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8">
+        <v>7</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>71</v>
       </c>
@@ -2981,15 +3052,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="8">
-        <v>7</v>
-      </c>
+      <c r="A61" s="8"/>
       <c r="B61" s="3" t="s">
         <v>72</v>
       </c>
@@ -3013,10 +3082,10 @@
         <f t="shared" si="9"/>
         <v>4.7746530000000007</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
     </row>
     <row r="62" spans="1:12" ht="30">
       <c r="A62" s="8"/>
@@ -3043,10 +3112,10 @@
         <f t="shared" si="9"/>
         <v>122.82192000000001</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="8"/>
@@ -3073,13 +3142,15 @@
         <f t="shared" si="9"/>
         <v>189.58212</v>
       </c>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="60">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8">
+        <v>8</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>75</v>
       </c>
@@ -3103,14 +3174,14 @@
         <f t="shared" si="9"/>
         <v>1210.9078799999997</v>
       </c>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>49</v>
@@ -3135,21 +3206,21 @@
         <f t="shared" si="9"/>
         <v>19.164599999999997</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65" s="42">
         <v>3</v>
       </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="38">
+      <c r="J65" s="45"/>
+      <c r="K65" s="42">
         <f>SUM(H65:H67)/I65</f>
         <v>365.990859</v>
       </c>
-      <c r="L65" s="38" t="s">
-        <v>142</v>
+      <c r="L65" s="42" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="30">
       <c r="A66" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>76</v>
@@ -3174,14 +3245,14 @@
         <f t="shared" si="9"/>
         <v>1064.2765769999999</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
     </row>
     <row r="67" spans="1:12" ht="60">
       <c r="A67" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>77</v>
@@ -3206,15 +3277,13 @@
         <f t="shared" si="9"/>
         <v>14.5314</v>
       </c>
-      <c r="I67" s="40"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
     </row>
     <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="8">
-        <v>11</v>
-      </c>
+      <c r="A68" s="8"/>
       <c r="B68" s="3" t="s">
         <v>121</v>
       </c>
@@ -3235,7 +3304,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:12" ht="30">
       <c r="A69" s="8"/>
@@ -3259,40 +3328,44 @@
       <c r="I69" s="5"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="8"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="2"/>
+      <c r="A70" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="40"/>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="33"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="65"/>
     </row>
     <row r="72" spans="1:12" ht="60">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
       <c r="B72" s="8" t="s">
         <v>78</v>
       </c>
@@ -3324,13 +3397,13 @@
         <v>16.574999999999999</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="14" t="s">
-        <v>149</v>
+      <c r="L72" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="90">
       <c r="A73" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>80</v>
@@ -3362,11 +3435,11 @@
         <v>16.38</v>
       </c>
       <c r="K73" s="8"/>
-      <c r="L73" s="14"/>
+      <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:12" ht="45">
       <c r="A74" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>81</v>
@@ -3391,56 +3464,57 @@
         <f t="shared" ref="H74:H76" si="12">G74*1.17</f>
         <v>351</v>
       </c>
-      <c r="I74" s="19">
-        <v>40</v>
-      </c>
-      <c r="J74" s="19">
+      <c r="I74" s="48">
+        <f>H75/1374</f>
+        <v>18.20368002183406</v>
+      </c>
+      <c r="J74" s="48">
         <f>SUM(H74:H77)/I74</f>
-        <v>858.50080874999981</v>
-      </c>
-      <c r="K74" s="19">
+        <v>1886.433529308991</v>
+      </c>
+      <c r="K74" s="48">
         <f>J74</f>
-        <v>858.50080874999981</v>
-      </c>
-      <c r="L74" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="45">
-      <c r="A75" s="8">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
+        <v>1886.433529308991</v>
+      </c>
+      <c r="L74" s="51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="26" customFormat="1" ht="45">
+      <c r="A75" s="24">
+        <v>4</v>
+      </c>
+      <c r="B75" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="25">
         <v>12181</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="24">
         <v>1.7549999999999999</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="24">
         <f t="shared" si="11"/>
         <v>21377.654999999999</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="24">
         <f t="shared" si="12"/>
         <v>25011.856349999998</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="52"/>
     </row>
     <row r="76" spans="1:12" ht="60">
       <c r="A76" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>86</v>
@@ -3465,14 +3539,14 @@
         <f t="shared" si="12"/>
         <v>8626.1759999999995</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="52"/>
     </row>
     <row r="77" spans="1:12" ht="45">
       <c r="A77" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>89</v>
@@ -3497,14 +3571,14 @@
         <f>G77*1.17</f>
         <v>351</v>
       </c>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="53"/>
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="A78" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>91</v>
@@ -3537,13 +3611,13 @@
         <v>385.88940000000002</v>
       </c>
       <c r="K78" s="7"/>
-      <c r="L78" s="14" t="s">
-        <v>150</v>
+      <c r="L78" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="60">
       <c r="A79" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>92</v>
@@ -3576,13 +3650,13 @@
         <f>H79/I79</f>
         <v>245.70000000000002</v>
       </c>
-      <c r="L79" s="14" t="s">
-        <v>151</v>
+      <c r="L79" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="45">
       <c r="A80" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>93</v>
@@ -3607,21 +3681,21 @@
         <f t="shared" si="13"/>
         <v>145.19100959999997</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I80" s="54">
         <v>3</v>
       </c>
-      <c r="J80" s="28"/>
-      <c r="K80" s="19">
+      <c r="J80" s="45"/>
+      <c r="K80" s="48">
         <f>SUM(H80:H82)/I80</f>
         <v>433.85741099999996</v>
       </c>
-      <c r="L80" s="22" t="s">
-        <v>142</v>
+      <c r="L80" s="51" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="75">
       <c r="A81" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>94</v>
@@ -3646,14 +3720,14 @@
         <f t="shared" si="13"/>
         <v>1046.2913369999999</v>
       </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="23"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="59"/>
     </row>
     <row r="82" spans="1:12" ht="60">
       <c r="A82" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>54</v>
@@ -3678,14 +3752,14 @@
         <f t="shared" si="13"/>
         <v>110.08988639999998</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="24"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="60"/>
     </row>
     <row r="83" spans="1:12" ht="60">
       <c r="A83" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>95</v>
@@ -3718,13 +3792,13 @@
         <f>H83/I83</f>
         <v>149.25065999999998</v>
       </c>
-      <c r="L83" s="14" t="s">
-        <v>142</v>
+      <c r="L83" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="60">
       <c r="A84" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>97</v>
@@ -3757,14 +3831,12 @@
         <f>H84/I84</f>
         <v>373.82670000000002</v>
       </c>
-      <c r="L84" s="14" t="s">
-        <v>142</v>
+      <c r="L84" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30">
-      <c r="A85" s="7">
-        <v>13</v>
-      </c>
+      <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
         <v>22</v>
       </c>
@@ -3785,7 +3857,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="21"/>
     </row>
     <row r="86" spans="1:12" ht="30">
       <c r="A86" s="7"/>
@@ -3809,26 +3881,28 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="21"/>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="33"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="65"/>
     </row>
     <row r="88" spans="1:12" ht="75">
-      <c r="A88" s="15"/>
+      <c r="A88" s="14">
+        <v>1</v>
+      </c>
       <c r="B88" s="7" t="s">
         <v>99</v>
       </c>
@@ -3855,18 +3929,18 @@
       <c r="I88" s="7">
         <v>2</v>
       </c>
-      <c r="J88" s="14"/>
+      <c r="J88" s="13"/>
       <c r="K88" s="8">
         <f>H88/I88</f>
         <v>58.04135999999999</v>
       </c>
-      <c r="L88" s="14" t="s">
-        <v>152</v>
+      <c r="L88" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="60">
       <c r="A89" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>100</v>
@@ -3894,18 +3968,18 @@
       <c r="I89" s="7">
         <v>3</v>
       </c>
-      <c r="J89" s="14"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="8">
         <f>H89/I89</f>
         <v>349.25740199999996</v>
       </c>
-      <c r="L89" s="14" t="s">
-        <v>142</v>
+      <c r="L89" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30">
       <c r="A90" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>101</v>
@@ -3933,18 +4007,18 @@
       <c r="I90" s="7">
         <v>4</v>
       </c>
-      <c r="J90" s="14"/>
+      <c r="J90" s="13"/>
       <c r="K90" s="8">
         <f>H90/I90</f>
         <v>127.96055999999983</v>
       </c>
-      <c r="L90" s="11" t="s">
-        <v>141</v>
+      <c r="L90" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="45">
       <c r="A91" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>49</v>
@@ -3969,21 +4043,21 @@
         <f t="shared" si="15"/>
         <v>38.329199999999993</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="54">
         <v>3</v>
       </c>
-      <c r="J91" s="28"/>
-      <c r="K91" s="25">
+      <c r="J91" s="45"/>
+      <c r="K91" s="61">
         <f>SUM(H91:H93)/I91</f>
         <v>196.44122159999998</v>
       </c>
-      <c r="L91" s="22" t="s">
-        <v>142</v>
+      <c r="L91" s="51" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="75">
       <c r="A92" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>94</v>
@@ -4008,14 +4082,14 @@
         <f t="shared" si="15"/>
         <v>521.93166479999991</v>
       </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="23"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="59"/>
     </row>
     <row r="93" spans="1:12" ht="60">
       <c r="A93" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>54</v>
@@ -4040,14 +4114,14 @@
         <f t="shared" si="15"/>
         <v>29.062799999999999</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="24"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="60"/>
     </row>
     <row r="94" spans="1:12" ht="60">
       <c r="A94" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>95</v>
@@ -4075,18 +4149,18 @@
       <c r="I94" s="7">
         <v>2</v>
       </c>
-      <c r="J94" s="14"/>
+      <c r="J94" s="13"/>
       <c r="K94" s="8">
         <f>H94/I94</f>
         <v>169.69680000000002</v>
       </c>
-      <c r="L94" s="14" t="s">
-        <v>152</v>
+      <c r="L94" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30">
       <c r="A95" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>101</v>
@@ -4114,18 +4188,18 @@
       <c r="I95" s="7">
         <v>4</v>
       </c>
-      <c r="J95" s="14"/>
+      <c r="J95" s="13"/>
       <c r="K95" s="8">
         <f>H95/I95</f>
         <v>76.068719999999999</v>
       </c>
-      <c r="L95" s="11" t="s">
-        <v>141</v>
+      <c r="L95" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="60">
       <c r="A96" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>103</v>
@@ -4150,21 +4224,21 @@
         <f t="shared" si="15"/>
         <v>35.942399999999999</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="54">
         <v>4</v>
       </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="25">
+      <c r="J96" s="54"/>
+      <c r="K96" s="61">
         <f>SUM(H96:H98)/I96</f>
         <v>129.24381599999998</v>
       </c>
-      <c r="L96" s="16" t="s">
-        <v>153</v>
+      <c r="L96" s="54" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="45">
       <c r="A97" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>105</v>
@@ -4189,14 +4263,14 @@
         <f t="shared" si="15"/>
         <v>440.03606399999995</v>
       </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="17"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="55"/>
     </row>
     <row r="98" spans="1:12" ht="60">
       <c r="A98" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>107</v>
@@ -4221,14 +4295,14 @@
         <f t="shared" si="15"/>
         <v>40.996799999999993</v>
       </c>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="18"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="56"/>
     </row>
     <row r="99" spans="1:12" ht="60">
       <c r="A99" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>109</v>
@@ -4256,18 +4330,18 @@
       <c r="I99" s="7">
         <v>2</v>
       </c>
-      <c r="J99" s="14"/>
+      <c r="J99" s="13"/>
       <c r="K99" s="8">
         <f>H99/I99</f>
         <v>169.69680000000002</v>
       </c>
-      <c r="L99" s="14" t="s">
-        <v>152</v>
+      <c r="L99" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="60">
       <c r="A100" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>110</v>
@@ -4295,18 +4369,18 @@
       <c r="I100" s="7">
         <v>3</v>
       </c>
-      <c r="J100" s="14"/>
+      <c r="J100" s="13"/>
       <c r="K100" s="8">
         <f>H100/I100</f>
         <v>75.757499999999993</v>
       </c>
-      <c r="L100" s="14" t="s">
-        <v>142</v>
+      <c r="L100" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="A101" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>111</v>
@@ -4331,23 +4405,23 @@
         <f t="shared" si="15"/>
         <v>16.800263999999999</v>
       </c>
-      <c r="I101" s="16">
+      <c r="I101" s="54">
         <v>19</v>
       </c>
-      <c r="J101" s="19">
+      <c r="J101" s="48">
         <f>SUM(H101:H105)/I101</f>
         <v>59.587496526315796</v>
       </c>
-      <c r="K101" s="19" t="s">
+      <c r="K101" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="19" t="s">
-        <v>154</v>
+      <c r="L101" s="48" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="30">
       <c r="A102" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>113</v>
@@ -4364,15 +4438,13 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="57"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="7">
-        <v>15</v>
-      </c>
+      <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
         <v>114</v>
       </c>
@@ -4396,10 +4468,10 @@
         <f t="shared" si="15"/>
         <v>64.199069999999992</v>
       </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="57"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7"/>
@@ -4426,13 +4498,15 @@
         <f t="shared" si="15"/>
         <v>498.2679</v>
       </c>
-      <c r="I104" s="17"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="57"/>
     </row>
     <row r="105" spans="1:12" ht="75">
-      <c r="A105" s="7"/>
+      <c r="A105" s="7">
+        <v>16</v>
+      </c>
       <c r="B105" s="7" t="s">
         <v>117</v>
       </c>
@@ -4456,14 +4530,14 @@
         <f t="shared" si="15"/>
         <v>552.89520000000005</v>
       </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
     </row>
     <row r="106" spans="1:12" ht="45">
       <c r="A106" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>119</v>
@@ -4491,19 +4565,17 @@
       <c r="I106" s="7">
         <v>8</v>
       </c>
-      <c r="J106" s="15"/>
+      <c r="J106" s="14"/>
       <c r="K106" s="8">
         <f>H106/I106</f>
         <v>92.137499999999989</v>
       </c>
-      <c r="L106" s="14" t="s">
-        <v>155</v>
+      <c r="L106" s="21" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="30">
-      <c r="A107" s="7">
-        <v>17</v>
-      </c>
+      <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
         <v>121</v>
       </c>
@@ -4524,7 +4596,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="14"/>
+      <c r="L107" s="21"/>
     </row>
     <row r="108" spans="1:12" ht="30">
       <c r="A108" s="7"/>
@@ -4548,15 +4620,51 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="14"/>
+      <c r="L108" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="I29:I40"/>
-    <mergeCell ref="J29:J40"/>
-    <mergeCell ref="K29:K40"/>
-    <mergeCell ref="L29:L40"/>
+  <mergeCells count="62">
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="K101:K105"/>
+    <mergeCell ref="L101:L105"/>
+    <mergeCell ref="L91:L93"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="K96:K98"/>
+    <mergeCell ref="L96:L98"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="I50:I64"/>
+    <mergeCell ref="J50:J64"/>
+    <mergeCell ref="K50:K64"/>
+    <mergeCell ref="L50:L64"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A4:K4"/>
@@ -4569,49 +4677,15 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="I8:I12"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="K8:K12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="I50:I64"/>
-    <mergeCell ref="J50:J64"/>
-    <mergeCell ref="K50:K64"/>
-    <mergeCell ref="L50:L64"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="K101:K105"/>
-    <mergeCell ref="L101:L105"/>
-    <mergeCell ref="L91:L93"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="K96:K98"/>
-    <mergeCell ref="L96:L98"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="I29:I40"/>
+    <mergeCell ref="J29:J40"/>
+    <mergeCell ref="K29:K40"/>
+    <mergeCell ref="L29:L40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
